--- a/deliverables/Design.xlsx
+++ b/deliverables/Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorecampa/eclipseProject/ProjectTIW-2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorecampa/eclipseProject/ProjectTIW-2021/deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D8AB8A-23FB-434D-BB6B-28690C42944A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A588C9C6-0494-DC4E-86C1-9EEB701F5A3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1700" yWindow="-18920" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{216E32EB-FD74-C341-9824-6E30DEEC878A}"/>
+    <workbookView xWindow="-2420" yWindow="-17280" windowWidth="28040" windowHeight="16440" activeTab="1" xr2:uid="{216E32EB-FD74-C341-9824-6E30DEEC878A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Beans</t>
   </si>
@@ -73,18 +73,12 @@
     <t>UserDAO</t>
   </si>
   <si>
-    <t>:findUserId(email/username, password)</t>
-  </si>
-  <si>
     <t>SongDAO</t>
   </si>
   <si>
     <t>PlaylistDAO</t>
   </si>
   <si>
-    <t>:findAllPlaylistById(id)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LoginForm(caso account sbagliato tengo salvata la email)     </t>
   </si>
   <si>
@@ -107,13 +101,52 @@
   </si>
   <si>
     <t>POST(crea canzone e fa la forward al getHomePage)</t>
+  </si>
+  <si>
+    <t>GetPlaylist -GET</t>
+  </si>
+  <si>
+    <t>GET(prende come parametro l'id della playlist selezionata e si occupa di passare i dati a playlist page che la renderà a video)</t>
+  </si>
+  <si>
+    <t>GET(prende come parametro l'id della canzone selezionata e si occupa di passare i dati a player page )</t>
+  </si>
+  <si>
+    <t>GetPlayer -GET</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>createUser</t>
+  </si>
+  <si>
+    <t>createSong</t>
+  </si>
+  <si>
+    <t>findUserId(email/username, password)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createPlaylist </t>
+  </si>
+  <si>
+    <t>findSongById(idSong)</t>
+  </si>
+  <si>
+    <t>findAllSongInPlaylist(idPlaylist, idUser) guardare come gestire il fatto di poterne visualizzare solo 5 alla volta con i bottoni di next e previous</t>
+  </si>
+  <si>
+    <t>findAllPlaylistById(userId)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +183,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -179,14 +234,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,10 +584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54F77AC-539F-0541-906E-3B985B1A8121}">
-  <dimension ref="F4:J37"/>
+  <dimension ref="E2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,8 +599,39 @@
     <col min="10" max="10" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:10" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="6:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:12" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="5:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="5:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="5:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
@@ -543,131 +644,147 @@
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="6:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="F6" s="1" t="s">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="5:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="8" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="6:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="6:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="F8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="J9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="6:10" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="6:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="5:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
@@ -706,10 +823,12 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:10" ht="17" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
@@ -812,6 +931,9 @@
       <c r="J37" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:L4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>